--- a/Final_project/Pseudo_Entropy/Q_N20_m1_1e-5_m2_1e-5.xlsx
+++ b/Final_project/Pseudo_Entropy/Q_N20_m1_1e-5_m2_1e-5.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(44.69655105096848+1.9555167381278167e-13j)</t>
+          <t>(44.06661531689622+3.600689707746915e-15j)</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(44.4465638666857-4.0895375787327116e-13j)</t>
+          <t>(43.81666048817191+8.172152929029903e-15j)</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(44.19658499587982+1.0001795951311242e-13j)</t>
+          <t>(43.566734953571185+3.6615006288890156e-16j)</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(43.94661983149919-7.269629508461209e-15j)</t>
+          <t>(43.31685770069331-1.0986012332137371e-13j)</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(43.69667726399374-4.1630858451631304e-15j)</t>
+          <t>(43.06706000695999-8.213842757697346e-15j)</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(43.44677194962919-4.1024725029730615e-14j)</t>
+          <t>(42.817393364800985+7.192313642357816e-17j)</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(43.19692804743385-3.031818641994647e-14j)</t>
+          <t>(42.567942466413726+1.0717289403548353e-15j)</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(42.94718537560713-5.614957386076423e-15j)</t>
+          <t>(42.31884639175281-1.0713877633968193e-15j)</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(42.69760954703283+8.192774690967763e-15j)</t>
+          <t>(42.07033294749745+7.275944815094282e-16j)</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(42.448308641660354+4.2757115238990194e-16j)</t>
+          <t>(41.822773689594165-1.0408724316361367e-30j)</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(42.199460592553564-2.8670612938243e-15j)</t>
+          <t>(41.576770406495186-1.0416128550639978e-15j)</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(41.95135807188424+1.4579497028981866e-15j)</t>
+          <t>(41.333286615400844-2.1227159549112395e-16j)</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(41.704481821973694-4.1590474677052015e-16j)</t>
+          <t>(41.09383598825049+1.0238471439926717e-15j)</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(41.45961994545885-6.172145720762539e-16j)</t>
+          <t>(40.86072315450446-2.4014332963331244e-16j)</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(41.21806114826193+2.387473242802846e-16j)</t>
+          <t>(40.63727906215249+8.69299570084271e-17j)</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(40.981908071822254+5.681508388580977e-16j)</t>
+          <t>(40.42791023692648+1.3711213116398855e-15j)</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(40.7545965524324-1.546981657518106e-16j)</t>
+          <t>(40.23757316141523+1.3022427941663247e-16j)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(40.54182856194918-2.2878575569953463e-16j)</t>
+          <t>(40.07006177072043-1.314702525791636e-17j)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(40.353606308358685-2.0406151155343072e-16j)</t>
+          <t>(39.924435615223295+3.5241585631940045e-16j)</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(40.21026228054525-2.501331549485859e-16j)</t>
+          <t>(39.7892741339774+2.6505777839417647e-16j)</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(40.167667545956036+5.122499705753614e-16j)</t>
+          <t>(39.636754218419604-1.1953979989131166e-17j)</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(40.350299433523396+4.559113761946767e-16j)</t>
+          <t>(39.42665793128837-2.459426000289053e-16j)</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(40.57911407025731+1.6879643762322572e-16j)</t>
+          <t>(39.132790160549796-1.5812633659363191e-16j)</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(40.83178494169147+1.1675591030789582e-15j)</t>
+          <t>(38.78040938209068+1.9309606006997025e-16j)</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(40.83554549688206-5.233078873637083e-15j)</t>
+          <t>(38.46324001632432+1.5488046986272394e-32j)</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(39.71685228687639-6.034234815844307e-15j)</t>
+          <t>(38.27620137948445-2.0293080804947547e-17j)</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(38.49542874877248+1.162046643994577e-14j)</t>
+          <t>(38.2093104250998+1.1687843518468129e-16j)</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(38.2345741616224-1.273448312609115e-14j)</t>
+          <t>(38.193953937301835+2.57593720487517e-16j)</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(38.19684175702793+5.1424563801762507e-14j)</t>
+          <t>(38.19130912072837-2.3703590823838772e-27j)</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(38.191663783332615-1.4537989632631565e-14j)</t>
+          <t>(38.19091437217985-1.4673507083590699e-16j)</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(38.19096034152109+1.1393287116053718e-13j)</t>
+          <t>(38.19085890781143-4.125723046665923e-17j)</t>
         </is>
       </c>
     </row>
